--- a/output/plannet-PlanNet-PractitionerRole.xlsx
+++ b/output/plannet-PlanNet-PractitionerRole.xlsx
@@ -149,7 +149,7 @@
     <t>plannet-PlanNet-PractitionerRole</t>
   </si>
   <si>
-    <t>PlanNet-PractitionerRole</t>
+    <t>PlanNet-PractitionerRole describes the role a practitioner plays at an organization, including the services they provide, the location(s) where they work, and their availability, electronic endpoints, and other relevant information.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -335,6 +335,26 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Network-extension}
+</t>
+  </si>
+  <si>
+    <t>Health insurance provider network in which the participatingOrganization provides the role's services (if defined) at the indicated locations (if defined).</t>
+  </si>
+  <si>
+    <t>viaintermediary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-ViaIntermediary-extension}
+</t>
+  </si>
+  <si>
+    <t>ViaIntermediary is a reference to an alternative point of contact for this organization</t>
+  </si>
+  <si>
     <t>availabletime</t>
   </si>
   <si>
@@ -342,27 +362,7 @@
 </t>
   </si>
   <si>
-    <t>AvailableTime</t>
-  </si>
-  <si>
-    <t>viaintermediary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/vhdir/StructureDefinition/contactpoint-viaintermediary}
-</t>
-  </si>
-  <si>
-    <t>ViaIntermediary</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/vhdir/StructureDefinition/network-reference}
-</t>
-  </si>
-  <si>
-    <t>Network</t>
+    <t>AvailableTime indicates when an organization is available for contact</t>
   </si>
   <si>
     <t>newpatientprofile</t>
@@ -372,7 +372,7 @@
 </t>
   </si>
   <si>
-    <t>New Patient Profile</t>
+    <t>New Patient Profile is a description of the type of new patients a practitioner accepts in their role (e.g. pediatric only)</t>
   </si>
   <si>
     <t>newpatients</t>
@@ -382,7 +382,7 @@
 </t>
   </si>
   <si>
-    <t>New Patients</t>
+    <t>New Patients indicates whether the practitioner is accepting new patients in their role</t>
   </si>
   <si>
     <t>qualification</t>
@@ -392,7 +392,7 @@
 </t>
   </si>
   <si>
-    <t>Qualification</t>
+    <t>Qualification indicates whether the organization has any formal qualifications</t>
   </si>
   <si>
     <t>PractitionerRole.modifierExtension</t>
